--- a/data/crimecommitter.xlsx
+++ b/data/crimecommitter.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\rodtronics.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D8FD2674-DC55-4EE5-80EF-ECA8685478CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C6E771-B968-4CF6-A98E-4D026308C393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="1755" windowWidth="21600" windowHeight="13560"/>
+    <workbookView xWindow="1095" yWindow="945" windowWidth="21600" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crimecommitter" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>buttonid</t>
   </si>
@@ -31,21 +41,6 @@
     <t>cost</t>
   </si>
   <si>
-    <t>requiredNoto</t>
-  </si>
-  <si>
-    <t>moneyEarned</t>
-  </si>
-  <si>
-    <t>notoEarned</t>
-  </si>
-  <si>
-    <t>timeToCompleteInSeconds</t>
-  </si>
-  <si>
-    <t>timeToCompleteInHours</t>
-  </si>
-  <si>
     <t>loit</t>
   </si>
   <si>
@@ -58,75 +53,18 @@
     <t>Skateboarding</t>
   </si>
   <si>
-    <t>litt</t>
-  </si>
-  <si>
-    <t>Littering</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>Selling Counterfeit Watches</t>
-  </si>
-  <si>
-    <t>baby</t>
-  </si>
-  <si>
-    <t>Candy from a Baby</t>
-  </si>
-  <si>
-    <t>jorts</t>
-  </si>
-  <si>
-    <t>Wearing Jorts</t>
-  </si>
-  <si>
     <t>xloit</t>
   </si>
   <si>
     <t>Extreme Loitering</t>
   </si>
   <si>
-    <t>jayw</t>
-  </si>
-  <si>
-    <t>Jaywalking</t>
-  </si>
-  <si>
-    <t>stealc</t>
-  </si>
-  <si>
-    <t>Stealing a Car Stereo</t>
-  </si>
-  <si>
     <t>walrus</t>
   </si>
   <si>
     <t>Transporting a Walrus without a Licence</t>
   </si>
   <si>
-    <t>scorp</t>
-  </si>
-  <si>
-    <t>Enhancing a Scorpion</t>
-  </si>
-  <si>
-    <t>runr</t>
-  </si>
-  <si>
-    <t>Running a Red Light</t>
-  </si>
-  <si>
-    <t>requiredInventory</t>
-  </si>
-  <si>
-    <t>gainedInventory</t>
-  </si>
-  <si>
-    <t>gainedInventoryMultiplier</t>
-  </si>
-  <si>
     <t>stealw</t>
   </si>
   <si>
@@ -134,16 +72,48 @@
   </si>
   <si>
     <t>["walr"]</t>
+  </si>
+  <si>
+    <t>undies</t>
+  </si>
+  <si>
+    <t>Stealing Brown Underwear</t>
+  </si>
+  <si>
+    <t>["steal"]</t>
+  </si>
+  <si>
+    <t>required Noto</t>
+  </si>
+  <si>
+    <t>money Earned</t>
+  </si>
+  <si>
+    <t>noto Earned</t>
+  </si>
+  <si>
+    <t>time To Complete In Seconds</t>
+  </si>
+  <si>
+    <t>time To Complete In Hours</t>
+  </si>
+  <si>
+    <t>required Inventory</t>
+  </si>
+  <si>
+    <t>gained Inventory</t>
+  </si>
+  <si>
+    <t>gained Inventory Multiplier</t>
+  </si>
+  <si>
+    <t>["steal","trap"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$NT$-404]* #,##0.00_-;\-[$NT$-404]* #,##0.00_-;_-[$NT$-404]* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,14 +256,16 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Source Code Pro Medium"/>
       <family val="3"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="8"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Source Code Pro Medium"/>
       <family val="3"/>
@@ -646,17 +618,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1011,81 +985,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>34</v>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
         <v>2</v>
       </c>
       <c r="G2" s="1">
@@ -1097,21 +1070,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>F2*2.5</f>
         <v>5</v>
       </c>
       <c r="G3" s="1">
@@ -1123,22 +1097,23 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>200</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F14" si="0">F3*2.5</f>
+        <v>12.5</v>
       </c>
       <c r="G4" s="1">
         <v>60</v>
@@ -1149,28 +1124,32 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
         <v>100</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>200</v>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>31.25</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K5" s="1">
         <v>3</v>
@@ -1178,22 +1157,23 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
         <v>200</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>100</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>300</v>
       </c>
-      <c r="F6" s="3">
-        <v>200</v>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>78.125</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1202,293 +1182,64 @@
         <v>3</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>10</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>5</v>
-      </c>
-      <c r="G26" s="1">
-        <v>45</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>4</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
-        <v>20</v>
-      </c>
-      <c r="E28" s="2">
-        <v>5</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2</v>
-      </c>
-      <c r="G28" s="1">
-        <v>60</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <v>12</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>3</v>
-      </c>
-      <c r="G29" s="1">
-        <v>28</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="2">
-        <v>15</v>
-      </c>
-      <c r="D30" s="3">
-        <v>17</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>-5</v>
-      </c>
-      <c r="G30" s="1">
-        <v>60</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>200</v>
-      </c>
-      <c r="G31" s="1">
-        <v>60</v>
-      </c>
-      <c r="H31" s="1">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="1">
-        <v>24</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>195.3125</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
-        <v>50</v>
-      </c>
-      <c r="E33" s="2">
-        <v>100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>30</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="2">
-        <v>200</v>
-      </c>
-      <c r="D34" s="3">
-        <v>100</v>
-      </c>
-      <c r="E34" s="2">
-        <v>300</v>
-      </c>
-      <c r="F34" s="3">
-        <v>200</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="2">
-        <v>150</v>
-      </c>
-      <c r="D35" s="3">
-        <v>35</v>
-      </c>
-      <c r="E35" s="2">
-        <v>200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
-        <v>12</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>20</v>
-      </c>
-      <c r="G36" s="1">
-        <v>60</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>488.28125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>1220.703125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>3051.7578125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>7629.39453125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>19073.486328125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>47683.7158203125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>119209.28955078125</v>
       </c>
     </row>
   </sheetData>

--- a/data/crimecommitter.xlsx
+++ b/data/crimecommitter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\rodtronics.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C6E771-B968-4CF6-A98E-4D026308C393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9925056-2AC3-40A7-B004-73AE8FCBBCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="945" windowWidth="21600" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="585" windowWidth="21600" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crimecommitter" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>buttonid</t>
   </si>
@@ -108,6 +108,24 @@
   </si>
   <si>
     <t>["steal","trap"]</t>
+  </si>
+  <si>
+    <t>60*10</t>
+  </si>
+  <si>
+    <t>walr</t>
+  </si>
+  <si>
+    <t>["skate"]</t>
+  </si>
+  <si>
+    <t>scarek</t>
+  </si>
+  <si>
+    <t>Scare a young kid</t>
+  </si>
+  <si>
+    <t>60*5</t>
   </si>
 </sst>
 </file>
@@ -986,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1094,6 +1112,9 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -1139,17 +1160,19 @@
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>31.25</v>
+        <v>100</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="K5" s="1">
         <v>3</v>
@@ -1173,7 +1196,7 @@
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>78.125</v>
+        <v>250</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1192,54 +1215,64 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>200</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
       <c r="F7" s="5">
-        <f t="shared" si="0"/>
-        <v>195.3125</v>
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
       <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>488.28125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>1220.703125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>3051.7578125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>7629.39453125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F12" s="5">
-        <f t="shared" si="0"/>
-        <v>19073.486328125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F13" s="5">
-        <f t="shared" si="0"/>
-        <v>47683.7158203125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F14" s="5">
-        <f t="shared" si="0"/>
-        <v>119209.28955078125</v>
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/crimecommitter.xlsx
+++ b/data/crimecommitter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\rodtronics.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9925056-2AC3-40A7-B004-73AE8FCBBCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BC9BC2-CCA8-4CD2-B912-D4C30269F137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="585" windowWidth="21600" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="1965" windowWidth="21600" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crimecommitter" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>buttonid</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Stealing Brown Underwear</t>
   </si>
   <si>
-    <t>["steal"]</t>
-  </si>
-  <si>
     <t>required Noto</t>
   </si>
   <si>
@@ -110,12 +107,6 @@
     <t>["steal","trap"]</t>
   </si>
   <si>
-    <t>60*10</t>
-  </si>
-  <si>
-    <t>walr</t>
-  </si>
-  <si>
     <t>["skate"]</t>
   </si>
   <si>
@@ -125,7 +116,145 @@
     <t>Scare a young kid</t>
   </si>
   <si>
-    <t>60*5</t>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>["thiefk"]</t>
+  </si>
+  <si>
+    <t>bagofs</t>
+  </si>
+  <si>
+    <t>Light a bag of shit on fire</t>
+  </si>
+  <si>
+    <t>["papbag","lighter","dogshit"]</t>
+  </si>
+  <si>
+    <t>dogshit</t>
+  </si>
+  <si>
+    <t>Clean up some dog shit</t>
+  </si>
+  <si>
+    <t>buytheif</t>
+  </si>
+  <si>
+    <t>Buy a theif kit</t>
+  </si>
+  <si>
+    <t>stealbag</t>
+  </si>
+  <si>
+    <t>Steal a paper bag</t>
+  </si>
+  <si>
+    <t>stealpurse</t>
+  </si>
+  <si>
+    <t>Steal a rich ladies purse</t>
+  </si>
+  <si>
+    <t>stealthief</t>
+  </si>
+  <si>
+    <t>Steal a thief kit</t>
+  </si>
+  <si>
+    <t>wearb</t>
+  </si>
+  <si>
+    <t>Wear a brown leather outfit</t>
+  </si>
+  <si>
+    <t>"bsuit"</t>
+  </si>
+  <si>
+    <t>"thiefk"</t>
+  </si>
+  <si>
+    <t>"undies"</t>
+  </si>
+  <si>
+    <t>"skate"</t>
+  </si>
+  <si>
+    <t>"ligher"</t>
+  </si>
+  <si>
+    <t>"dogshit"</t>
+  </si>
+  <si>
+    <t>"papbag"</t>
+  </si>
+  <si>
+    <t>"lighter"</t>
+  </si>
+  <si>
+    <t>["belt","shoes","pants","shirt","undies","socks"]</t>
+  </si>
+  <si>
+    <t>embez</t>
+  </si>
+  <si>
+    <t>Embezzlement</t>
+  </si>
+  <si>
+    <t>forge</t>
+  </si>
+  <si>
+    <t>mintheist</t>
+  </si>
+  <si>
+    <t>Heist at the Mint</t>
+  </si>
+  <si>
+    <t>buycrew</t>
+  </si>
+  <si>
+    <t>Hire thugs</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>"walr"</t>
+  </si>
+  <si>
+    <t>Forgery of Minor Cash</t>
+  </si>
+  <si>
+    <t>"loitb"</t>
+  </si>
+  <si>
+    <t>robbook</t>
+  </si>
+  <si>
+    <t>Rob a book store</t>
+  </si>
+  <si>
+    <t>buyforge</t>
+  </si>
+  <si>
+    <t>Buy a forgery set</t>
+  </si>
+  <si>
+    <t>"forges"</t>
+  </si>
+  <si>
+    <t>"books"</t>
+  </si>
+  <si>
+    <t>"thugs"</t>
+  </si>
+  <si>
+    <t>["forges"]</t>
+  </si>
+  <si>
+    <t>"bnote"</t>
+  </si>
+  <si>
+    <t>10*60</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1036,28 +1165,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -1077,12 +1206,21 @@
         <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1103,7 +1241,6 @@
         <v>0</v>
       </c>
       <c r="F3" s="5">
-        <f>F2*2.5</f>
         <v>5</v>
       </c>
       <c r="G3" s="1">
@@ -1113,7 +1250,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -1133,14 +1276,22 @@
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F14" si="0">F3*2.5</f>
-        <v>12.5</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1">
         <v>168</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
@@ -1169,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="K5" s="1">
         <v>3</v>
@@ -1195,8 +1346,7 @@
         <v>300</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1206,6 +1356,12 @@
       </c>
       <c r="I6" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
@@ -1227,17 +1383,17 @@
       <c r="F7" s="5">
         <v>12</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
+      <c r="G7" s="1">
+        <v>300</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -1245,16 +1401,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
       </c>
       <c r="D8" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -1262,16 +1418,471 @@
       <c r="F8" s="5">
         <v>30</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="1">
+        <v>180</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="C9" s="5">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5">
+        <v>150</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>100</v>
+      </c>
+      <c r="G9" s="1">
+        <f>30*60</f>
+        <v>1800</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
         <v>5</v>
       </c>
-      <c r="K8" s="1">
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5">
+        <v>200</v>
+      </c>
+      <c r="D11" s="5">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <f>20*60</f>
+        <v>1200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5">
+        <v>78</v>
+      </c>
+      <c r="F13" s="5">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1">
+        <v>60</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>180</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5">
+        <v>200</v>
+      </c>
+      <c r="D15" s="5">
+        <v>500</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>56</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="5">
+        <v>200</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>70</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="5">
+        <v>200</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="5">
+        <v>60</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="5">
+        <v>500</v>
+      </c>
+      <c r="D18" s="5">
+        <v>500</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>65</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>20</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="5">
+        <v>500</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>50</v>
+      </c>
+      <c r="G19" s="1">
+        <v>550</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>200</v>
+      </c>
+      <c r="E20" s="5">
+        <v>50</v>
+      </c>
+      <c r="F20" s="5">
+        <v>75</v>
+      </c>
+      <c r="G20" s="1">
+        <v>500</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="5">
+        <v>100</v>
+      </c>
+      <c r="D21" s="5">
+        <v>250</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>40</v>
+      </c>
+      <c r="G21" s="1">
+        <v>300</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="1">
         <v>1</v>
       </c>
     </row>

--- a/data/crimecommitter.xlsx
+++ b/data/crimecommitter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\rodtronics.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BC9BC2-CCA8-4CD2-B912-D4C30269F137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF9B44C-7C30-463F-9C6D-44F4C9202C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1965" windowWidth="21600" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crimecommitter" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>buttonid</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>10*60</t>
+  </si>
+  <si>
+    <t>NeighbourhoodIndex</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1154,7 +1157,7 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1188,8 +1191,11 @@
       <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1229,11 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1258,8 +1267,11 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1293,8 +1305,11 @@
       <c r="K4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1328,8 +1343,11 @@
       <c r="K5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1363,8 +1381,11 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1398,8 +1419,11 @@
       <c r="K7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1433,8 +1457,11 @@
       <c r="K8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1469,8 +1496,11 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1504,8 +1534,11 @@
       <c r="K10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -1540,8 +1573,11 @@
       <c r="K11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1576,8 +1612,11 @@
       <c r="K12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -1611,8 +1650,11 @@
       <c r="K13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1646,8 +1688,11 @@
       <c r="K14" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1681,8 +1726,11 @@
       <c r="K15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -1716,8 +1764,11 @@
       <c r="K16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -1751,8 +1802,11 @@
       <c r="K17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -1783,8 +1837,11 @@
       <c r="J18" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="K19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -1850,8 +1910,11 @@
       <c r="J20" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -1883,6 +1946,9 @@
         <v>69</v>
       </c>
       <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
         <v>1</v>
       </c>
     </row>

--- a/data/crimecommitter.xlsx
+++ b/data/crimecommitter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\rodtronics.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF9B44C-7C30-463F-9C6D-44F4C9202C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A665621-50C3-4847-A1CE-17C56010051A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>buttonid</t>
   </si>
@@ -47,39 +47,6 @@
     <t>Loitering</t>
   </si>
   <si>
-    <t>skate</t>
-  </si>
-  <si>
-    <t>Skateboarding</t>
-  </si>
-  <si>
-    <t>xloit</t>
-  </si>
-  <si>
-    <t>Extreme Loitering</t>
-  </si>
-  <si>
-    <t>walrus</t>
-  </si>
-  <si>
-    <t>Transporting a Walrus without a Licence</t>
-  </si>
-  <si>
-    <t>stealw</t>
-  </si>
-  <si>
-    <t>Stealing Walrus</t>
-  </si>
-  <si>
-    <t>["walr"]</t>
-  </si>
-  <si>
-    <t>undies</t>
-  </si>
-  <si>
-    <t>Stealing Brown Underwear</t>
-  </si>
-  <si>
     <t>required Noto</t>
   </si>
   <si>
@@ -104,160 +71,97 @@
     <t>gained Inventory Multiplier</t>
   </si>
   <si>
-    <t>["steal","trap"]</t>
-  </si>
-  <si>
-    <t>["skate"]</t>
-  </si>
-  <si>
-    <t>scarek</t>
-  </si>
-  <si>
-    <t>Scare a young kid</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>["thiefk"]</t>
-  </si>
-  <si>
-    <t>bagofs</t>
-  </si>
-  <si>
-    <t>Light a bag of shit on fire</t>
-  </si>
-  <si>
-    <t>["papbag","lighter","dogshit"]</t>
-  </si>
-  <si>
-    <t>dogshit</t>
-  </si>
-  <si>
-    <t>Clean up some dog shit</t>
-  </si>
-  <si>
-    <t>buytheif</t>
-  </si>
-  <si>
-    <t>Buy a theif kit</t>
-  </si>
-  <si>
-    <t>stealbag</t>
-  </si>
-  <si>
-    <t>Steal a paper bag</t>
-  </si>
-  <si>
-    <t>stealpurse</t>
-  </si>
-  <si>
-    <t>Steal a rich ladies purse</t>
-  </si>
-  <si>
-    <t>stealthief</t>
-  </si>
-  <si>
-    <t>Steal a thief kit</t>
-  </si>
-  <si>
-    <t>wearb</t>
-  </si>
-  <si>
-    <t>Wear a brown leather outfit</t>
-  </si>
-  <si>
-    <t>"bsuit"</t>
-  </si>
-  <si>
-    <t>"thiefk"</t>
-  </si>
-  <si>
-    <t>"undies"</t>
-  </si>
-  <si>
-    <t>"skate"</t>
-  </si>
-  <si>
-    <t>"ligher"</t>
-  </si>
-  <si>
-    <t>"dogshit"</t>
-  </si>
-  <si>
-    <t>"papbag"</t>
-  </si>
-  <si>
-    <t>"lighter"</t>
-  </si>
-  <si>
-    <t>["belt","shoes","pants","shirt","undies","socks"]</t>
-  </si>
-  <si>
-    <t>embez</t>
-  </si>
-  <si>
-    <t>Embezzlement</t>
-  </si>
-  <si>
-    <t>forge</t>
-  </si>
-  <si>
-    <t>mintheist</t>
-  </si>
-  <si>
-    <t>Heist at the Mint</t>
-  </si>
-  <si>
-    <t>buycrew</t>
-  </si>
-  <si>
-    <t>Hire thugs</t>
-  </si>
-  <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>"walr"</t>
-  </si>
-  <si>
-    <t>Forgery of Minor Cash</t>
-  </si>
-  <si>
-    <t>"loitb"</t>
-  </si>
-  <si>
-    <t>robbook</t>
-  </si>
-  <si>
-    <t>Rob a book store</t>
-  </si>
-  <si>
-    <t>buyforge</t>
-  </si>
-  <si>
-    <t>Buy a forgery set</t>
-  </si>
-  <si>
-    <t>"forges"</t>
-  </si>
-  <si>
-    <t>"books"</t>
-  </si>
-  <si>
-    <t>"thugs"</t>
-  </si>
-  <si>
-    <t>["forges"]</t>
-  </si>
-  <si>
-    <t>"bnote"</t>
-  </si>
-  <si>
-    <t>10*60</t>
-  </si>
-  <si>
     <t>NeighbourhoodIndex</t>
+  </si>
+  <si>
+    <t>butta</t>
+  </si>
+  <si>
+    <t>buttb</t>
+  </si>
+  <si>
+    <t>buttc</t>
+  </si>
+  <si>
+    <t>buttd</t>
+  </si>
+  <si>
+    <t>butte</t>
+  </si>
+  <si>
+    <t>buttf</t>
+  </si>
+  <si>
+    <t>buttg</t>
+  </si>
+  <si>
+    <t>butth</t>
+  </si>
+  <si>
+    <t>butti</t>
+  </si>
+  <si>
+    <t>buttj</t>
+  </si>
+  <si>
+    <t>buttk</t>
+  </si>
+  <si>
+    <t>buttl</t>
+  </si>
+  <si>
+    <t>buttm</t>
+  </si>
+  <si>
+    <t>buttn</t>
+  </si>
+  <si>
+    <t>butto</t>
+  </si>
+  <si>
+    <t>aasd</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>fff</t>
+  </si>
+  <si>
+    <t>ggg</t>
+  </si>
+  <si>
+    <t>hhh</t>
+  </si>
+  <si>
+    <t>jjj</t>
+  </si>
+  <si>
+    <t>iii</t>
+  </si>
+  <si>
+    <t>kkk</t>
+  </si>
+  <si>
+    <t>lll</t>
+  </si>
+  <si>
+    <t>mmm</t>
+  </si>
+  <si>
+    <t>nnn</t>
+  </si>
+  <si>
+    <t>gfdd</t>
   </si>
 </sst>
 </file>
@@ -768,7 +672,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -781,6 +685,10 @@
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1136,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1148,16 +1056,19 @@
     <col min="2" max="2" width="44.140625" style="1" customWidth="1"/>
     <col min="3" max="4" width="9.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="16.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="7"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1168,34 +1079,35 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1212,374 +1124,460 @@
         <v>0</v>
       </c>
       <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <f>10^(L2+1)</f>
+        <v>10</v>
+      </c>
+      <c r="N2" s="7">
+        <f>F2/M2</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F7" si="0">M3/100</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>72</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M19" si="1">10^(L3+1)</f>
+        <v>100</v>
+      </c>
+      <c r="N3" s="7">
+        <f t="shared" ref="N3:N19" si="2">F3/M3</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G5" s="1">
+        <v>79</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>63</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <v>4</v>
       </c>
-      <c r="G2" s="1">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>96</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>45</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
+      <c r="N8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>60</v>
-      </c>
-      <c r="G4" s="1">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1">
-        <v>168</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="1">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" ref="F9:F13" si="3">M9/10</f>
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1985</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="1">
-        <v>0</v>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>100</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="G10" s="1">
+        <v>1763</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1759</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="1">
-        <v>0</v>
+      <c r="M11" s="1">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5">
-        <v>200</v>
-      </c>
-      <c r="D6" s="5">
-        <v>100</v>
-      </c>
-      <c r="E6" s="5">
-        <v>300</v>
-      </c>
-      <c r="F6" s="5">
-        <v>50</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>200</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1">
-        <v>300</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1">
-        <v>180</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5">
-        <v>150</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>100</v>
-      </c>
-      <c r="G9" s="1">
-        <f>30*60</f>
-        <v>1800</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5">
-        <v>200</v>
-      </c>
-      <c r="D11" s="5">
-        <v>50</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <f>20*60</f>
-        <v>1200</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>38</v>
@@ -1588,368 +1586,369 @@
         <v>0</v>
       </c>
       <c r="D12" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
       </c>
       <c r="F12" s="5">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10000</v>
       </c>
       <c r="G12" s="1">
-        <f>5*60</f>
+        <v>1862</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1502</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <f>M14/2</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
         <v>300</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>40</v>
-      </c>
-      <c r="E13" s="5">
-        <v>78</v>
-      </c>
-      <c r="F13" s="5">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1">
-        <v>60</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="5">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ref="F15:F19" si="4">M15/2</f>
         <v>50</v>
       </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1">
-        <v>180</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="1">
-        <v>3</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="5">
-        <v>200</v>
-      </c>
-      <c r="D15" s="5">
-        <v>500</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>56</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>74</v>
+      <c r="G15" s="1">
+        <v>345</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
       </c>
+      <c r="M15" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="G16" s="1">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1">
+        <v>81</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>683</v>
+      </c>
+      <c r="H17" s="1">
+        <v>60</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>862</v>
+      </c>
+      <c r="H18" s="1">
         <v>54</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D16" s="5">
-        <v>200</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>70</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="5">
-        <v>200</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2000</v>
-      </c>
-      <c r="F17" s="5">
-        <v>60</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="5">
-        <v>500</v>
-      </c>
-      <c r="D18" s="5">
-        <v>500</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>65</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>20</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C19" s="5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D19" s="5">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
       </c>
       <c r="F19" s="5">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>500000</v>
       </c>
       <c r="G19" s="1">
-        <v>550</v>
+        <v>683</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>200</v>
-      </c>
-      <c r="E20" s="5">
-        <v>50</v>
-      </c>
-      <c r="F20" s="5">
-        <v>75</v>
-      </c>
-      <c r="G20" s="1">
-        <v>500</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="5">
-        <v>100</v>
-      </c>
-      <c r="D21" s="5">
-        <v>250</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>40</v>
-      </c>
-      <c r="G21" s="1">
-        <v>300</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/crimecommitter.xlsx
+++ b/data/crimecommitter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\rodtronics.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A665621-50C3-4847-A1CE-17C56010051A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B203787E-1E24-47AC-974B-5957B69103CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>buttonid</t>
   </si>
@@ -44,9 +44,6 @@
     <t>loit</t>
   </si>
   <si>
-    <t>Loitering</t>
-  </si>
-  <si>
     <t>required Noto</t>
   </si>
   <si>
@@ -74,94 +71,151 @@
     <t>NeighbourhoodIndex</t>
   </si>
   <si>
-    <t>butta</t>
-  </si>
-  <si>
-    <t>buttb</t>
-  </si>
-  <si>
-    <t>buttc</t>
-  </si>
-  <si>
-    <t>buttd</t>
-  </si>
-  <si>
-    <t>butte</t>
-  </si>
-  <si>
-    <t>buttf</t>
-  </si>
-  <si>
-    <t>buttg</t>
-  </si>
-  <si>
-    <t>butth</t>
-  </si>
-  <si>
-    <t>butti</t>
-  </si>
-  <si>
-    <t>buttj</t>
-  </si>
-  <si>
-    <t>buttk</t>
-  </si>
-  <si>
-    <t>buttl</t>
-  </si>
-  <si>
-    <t>buttm</t>
-  </si>
-  <si>
-    <t>buttn</t>
-  </si>
-  <si>
-    <t>butto</t>
-  </si>
-  <si>
-    <t>aasd</t>
-  </si>
-  <si>
-    <t>bbb</t>
-  </si>
-  <si>
-    <t>ccc</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>eee</t>
-  </si>
-  <si>
-    <t>fff</t>
-  </si>
-  <si>
-    <t>ggg</t>
-  </si>
-  <si>
-    <t>hhh</t>
-  </si>
-  <si>
-    <t>jjj</t>
-  </si>
-  <si>
-    <t>iii</t>
-  </si>
-  <si>
-    <t>kkk</t>
-  </si>
-  <si>
-    <t>lll</t>
-  </si>
-  <si>
-    <t>mmm</t>
-  </si>
-  <si>
-    <t>nnn</t>
-  </si>
-  <si>
-    <t>gfdd</t>
+    <t>power loitering</t>
+  </si>
+  <si>
+    <t>extreme loitering</t>
+  </si>
+  <si>
+    <t>profound loitering</t>
+  </si>
+  <si>
+    <t>death loitering</t>
+  </si>
+  <si>
+    <t>grand loitering</t>
+  </si>
+  <si>
+    <t>loitp</t>
+  </si>
+  <si>
+    <t>loitex</t>
+  </si>
+  <si>
+    <t>lotpowe</t>
+  </si>
+  <si>
+    <t>loitdeath</t>
+  </si>
+  <si>
+    <t>loitgra</t>
+  </si>
+  <si>
+    <t>jaywalking</t>
+  </si>
+  <si>
+    <t>jaywalk</t>
+  </si>
+  <si>
+    <t>tagfe</t>
+  </si>
+  <si>
+    <t>tagging a short fence with a crayon</t>
+  </si>
+  <si>
+    <t>tagging a taller fence</t>
+  </si>
+  <si>
+    <t>tagtf</t>
+  </si>
+  <si>
+    <t>local graffiti</t>
+  </si>
+  <si>
+    <t>grafloc</t>
+  </si>
+  <si>
+    <t>amateur loitering</t>
+  </si>
+  <si>
+    <t>hijacking a mobility scooter</t>
+  </si>
+  <si>
+    <t>hijack</t>
+  </si>
+  <si>
+    <t>jayrunning</t>
+  </si>
+  <si>
+    <t>jayr</t>
+  </si>
+  <si>
+    <t>candy snatching</t>
+  </si>
+  <si>
+    <t>candys</t>
+  </si>
+  <si>
+    <t>shoesteal</t>
+  </si>
+  <si>
+    <t>stealing someones shoes</t>
+  </si>
+  <si>
+    <t>selling fake donuts</t>
+  </si>
+  <si>
+    <t>fakedonu</t>
+  </si>
+  <si>
+    <t>stealing someones socks</t>
+  </si>
+  <si>
+    <t>steasocks</t>
+  </si>
+  <si>
+    <t>stealing a rich ladies purse</t>
+  </si>
+  <si>
+    <t>stealpur</t>
+  </si>
+  <si>
+    <t>bitcoin scam</t>
+  </si>
+  <si>
+    <t>boitsc</t>
+  </si>
+  <si>
+    <t>selling infamous drugs</t>
+  </si>
+  <si>
+    <t>selldrugs</t>
+  </si>
+  <si>
+    <t>mail order scam</t>
+  </si>
+  <si>
+    <t>mailord</t>
+  </si>
+  <si>
+    <t>cat scam</t>
+  </si>
+  <si>
+    <t>catscam</t>
+  </si>
+  <si>
+    <t>"cat"</t>
+  </si>
+  <si>
+    <t>scare a kid</t>
+  </si>
+  <si>
+    <t>skateboarding</t>
+  </si>
+  <si>
+    <t>["skate"]</t>
+  </si>
+  <si>
+    <t>"skate"</t>
+  </si>
+  <si>
+    <t>enhance a scorpion</t>
+  </si>
+  <si>
+    <t>scarek</t>
+  </si>
+  <si>
+    <t>skate</t>
   </si>
 </sst>
 </file>
@@ -1044,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1064,7 +1118,7 @@
     <col min="11" max="11" width="14.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="16.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="7"/>
+    <col min="14" max="14" width="17" style="7" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1079,52 +1133,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
       </c>
       <c r="G2" s="1">
         <v>7</v>
@@ -1150,15 +1204,15 @@
       </c>
       <c r="N2" s="7">
         <f>F2/M2</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -1170,11 +1224,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F7" si="0">M3/100</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -1192,20 +1245,20 @@
         <v>1</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M19" si="1">10^(L3+1)</f>
+        <f t="shared" ref="M3:M22" si="0">10^(L3+1)</f>
         <v>100</v>
       </c>
       <c r="N3" s="7">
-        <f t="shared" ref="N3:N19" si="2">F3/M3</f>
-        <v>0.01</v>
+        <f t="shared" ref="N3:N35" si="1">F3/M3</f>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -1217,370 +1270,365 @@
         <v>0</v>
       </c>
       <c r="F4" s="5">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F6" si="2">M5/100</f>
+        <v>100</v>
+      </c>
+      <c r="G5" s="1">
+        <v>79</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>250</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>63</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1250</v>
+      </c>
+      <c r="F7" s="5">
+        <v>19000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>96</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G4" s="1">
-        <v>61</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="N4" s="7">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="N8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1985</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G5" s="1">
-        <v>79</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>3</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-      <c r="N5" s="7">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="N9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>125</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1763</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="G6" s="1">
-        <v>63</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>4</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-      <c r="N6" s="7">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="N10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1200</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1759</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G7" s="1">
-        <v>96</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="N7" s="7">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="N8" s="7">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" ref="F9:F13" si="3">M9/10</f>
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1985</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="N9" s="7">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1763</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>2</v>
-      </c>
-      <c r="M10" s="1">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="N10" s="7">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1759</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>3</v>
-      </c>
-      <c r="M11" s="1">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
       <c r="N11" s="7">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
@@ -1592,8 +1640,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G12" s="1">
         <v>1862</v>
@@ -1614,20 +1661,20 @@
         <v>4</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
       <c r="N12" s="7">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0.15</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
@@ -1639,8 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="3"/>
-        <v>100000</v>
+        <v>175000</v>
       </c>
       <c r="G13" s="1">
         <v>1502</v>
@@ -1661,20 +1707,20 @@
         <v>5</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
       <c r="N13" s="7">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -1686,8 +1732,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5">
-        <f>M14/2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="1">
         <v>300</v>
@@ -1708,20 +1753,20 @@
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N14" s="7">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -1733,8 +1778,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" ref="F15:F19" si="4">M15/2</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G15" s="1">
         <v>345</v>
@@ -1755,20 +1799,20 @@
         <v>1</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="N15" s="7">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -1780,8 +1824,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="4"/>
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="G16" s="1">
         <v>26</v>
@@ -1802,20 +1845,20 @@
         <v>2</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="N16" s="7">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -1827,8 +1870,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G17" s="1">
         <v>683</v>
@@ -1849,20 +1891,20 @@
         <v>3</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="N17" s="7">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -1874,8 +1916,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="G18" s="1">
         <v>862</v>
@@ -1896,20 +1937,20 @@
         <v>4</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
       <c r="N18" s="7">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C19" s="5">
         <v>0</v>
@@ -1921,8 +1962,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="4"/>
-        <v>500000</v>
+        <v>550000</v>
       </c>
       <c r="G19" s="1">
         <v>683</v>
@@ -1943,12 +1983,310 @@
         <v>5</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1">
+        <v>110000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>288</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>37</v>
+      </c>
+      <c r="F21" s="5">
+        <v>23</v>
+      </c>
+      <c r="G21" s="1">
+        <f>60*20</f>
+        <v>1200</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>75</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>27</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2100</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N26" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N27" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N28" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N29" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N30" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N31" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N32" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.45">
+      <c r="N33" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.45">
+      <c r="N34" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.45">
+      <c r="N35" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
